--- a/data/data_store.xlsx
+++ b/data/data_store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="新增区域成功" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>区域名称</t>
   </si>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>4124@14.c</t>
-  </si>
-  <si>
-    <t>web7</t>
-  </si>
-  <si>
-    <t>4124@</t>
   </si>
   <si>
     <t>删除的门店名称</t>
@@ -1204,7 +1198,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1346,7 +1340,6 @@
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="1"/>
-      <c r="E8"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="6:6">
@@ -1354,7 +1347,6 @@
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="1"/>
-      <c r="E10"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="6:6">
@@ -1362,17 +1354,14 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="1"/>
-      <c r="E12"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="1"/>
-      <c r="E13"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="1"/>
-      <c r="E14"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="6:6">
@@ -1380,7 +1369,6 @@
     </row>
     <row r="16" spans="4:6">
       <c r="D16" s="1"/>
-      <c r="E16"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="6:6">
@@ -1388,7 +1376,6 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="1"/>
-      <c r="E18"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="6:6">
@@ -1396,7 +1383,6 @@
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="1"/>
-      <c r="E20"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="6:6">
@@ -1404,7 +1390,6 @@
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="1"/>
-      <c r="E22"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="6:6">
@@ -1617,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1660,7 +1645,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1681,28 +1666,8 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>124</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>2412</v>
-      </c>
+    <row r="3" spans="7:7">
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1710,7 +1675,6 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="4124@14.c" tooltip="mailto:4124@14.c"/>
-    <hyperlink ref="G3" r:id="rId1" display="4124@" tooltip="mailto:4124@14.c"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1730,7 +1694,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/data/data_store.xlsx
+++ b/data/data_store.xlsx
@@ -4,22 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="新增区域成功" sheetId="1" r:id="rId1"/>
-    <sheet name="修改区域成功" sheetId="7" r:id="rId2"/>
-    <sheet name="删除区域成功" sheetId="6" r:id="rId3"/>
-    <sheet name="新增门店成功" sheetId="3" r:id="rId4"/>
-    <sheet name="删除区域失败" sheetId="8" r:id="rId5"/>
-    <sheet name="新增门店失败" sheetId="9" r:id="rId6"/>
-    <sheet name="修改门店成功" sheetId="4" r:id="rId7"/>
-    <sheet name="修改门店失败" sheetId="10" r:id="rId8"/>
-    <sheet name="删除门店成功" sheetId="5" r:id="rId9"/>
+    <sheet name="新增门店成功" sheetId="3" r:id="rId1"/>
+    <sheet name="新增门店失败" sheetId="9" r:id="rId2"/>
+    <sheet name="修改门店成功" sheetId="4" r:id="rId3"/>
+    <sheet name="修改门店失败" sheetId="10" r:id="rId4"/>
+    <sheet name="删除门店成功" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新增区域成功!$E$2:$E$1048576</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,34 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
-  <si>
-    <t>区域名称</t>
-  </si>
-  <si>
-    <t>area11</t>
-  </si>
-  <si>
-    <t>area12</t>
-  </si>
-  <si>
-    <t>area333</t>
-  </si>
-  <si>
-    <t>area14</t>
-  </si>
-  <si>
-    <t>要修改的区域名称</t>
-  </si>
-  <si>
-    <t>修改后的区域名称</t>
-  </si>
-  <si>
-    <t>area13</t>
-  </si>
-  <si>
-    <t>要删除的区域</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>门店名字</t>
   </si>
@@ -94,6 +60,9 @@
     <t>中华人民共和国浙江省宁波市</t>
   </si>
   <si>
+    <t>直营</t>
+  </si>
+  <si>
     <t>sfc</t>
   </si>
   <si>
@@ -124,9 +93,6 @@
     <t>15@q.c</t>
   </si>
   <si>
-    <t>area1</t>
-  </si>
-  <si>
     <t>web10</t>
   </si>
   <si>
@@ -140,6 +106,9 @@
   </si>
   <si>
     <t>4124@14.c</t>
+  </si>
+  <si>
+    <t>4124@14</t>
   </si>
   <si>
     <t>删除的门店名称</t>
@@ -155,7 +124,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +134,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -631,130 +607,130 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,127 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="4" max="4" width="9.77777777777778" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 E2 D3 E3 D4:D1048576 E4:E1048576 F$1:F$1048576"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1214,42 +1073,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1111</v>
@@ -1257,19 +1116,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>1112</v>
@@ -1277,19 +1136,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>1113</v>
@@ -1297,19 +1156,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G5">
         <v>1114</v>
@@ -1317,19 +1176,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>1115</v>
@@ -1411,82 +1270,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1111</v>
@@ -1494,19 +1326,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>1111</v>
@@ -1525,61 +1357,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>2412</v>
@@ -1597,13 +1432,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1619,55 +1454,75 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>2412</v>
       </c>
     </row>
-    <row r="3" spans="7:7">
-      <c r="G3" s="1"/>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>2412</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1675,51 +1530,52 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="4124@14.c" tooltip="mailto:4124@14.c"/>
+    <hyperlink ref="G3" r:id="rId2" display="4124@14" tooltip="mailto:4124@14"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_store.xlsx
+++ b/data/data_store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="新增门店成功" sheetId="3" r:id="rId1"/>
@@ -1437,7 +1437,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1542,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/data/data_store.xlsx
+++ b/data/data_store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="9767" windowHeight="4247" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="新增门店成功" sheetId="3" r:id="rId1"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
